--- a/biology/Médecine/Densité_minérale_osseuse/Densité_minérale_osseuse.xlsx
+++ b/biology/Médecine/Densité_minérale_osseuse/Densité_minérale_osseuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Densit%C3%A9_min%C3%A9rale_osseuse</t>
+          <t>Densité_minérale_osseuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La densité minérale osseuse (ou DMO) correspond à la quantité de calcium dans un volume donné de matière osseuse. Cette mesure permet notamment d'évaluer le risque de fracture d'un os dans le cadre de maladies comme l'ostéoporose. Elle est exprimée en g/cm2.
  Portail de la médecine                     </t>
